--- a/assets/checklist/DefChecklist.xlsx
+++ b/assets/checklist/DefChecklist.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Worktable\Izmaylov\Staff\Python\Autogui\K4Yauto2.0\assets\checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evrope\Desktop\Izmaylov\staff\programming\K4Yauto\assets\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Расчет планов ТО" sheetId="2" r:id="rId2"/>
     <sheet name="Доп. продажи " sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t xml:space="preserve">                 КАРТА ДНЯ </t>
   </si>
@@ -29,16 +29,16 @@
     <t>Дата:</t>
   </si>
   <si>
-    <t>20.09.2022</t>
+    <t>09.03.2023</t>
   </si>
   <si>
     <t>Магазин:</t>
   </si>
   <si>
-    <t>Домодедовская</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Европейский</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Продавец:</t>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>На конец смены:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>ТО за сегодня:</t>
@@ -315,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1324,231 +1321,231 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,8 +1909,8 @@
     <col min="7" max="7" width="17.5703125" style="53" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="53" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="9" style="54" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="56" customWidth="1"/>
+    <col min="11" max="11" width="9" style="56" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" style="53" customWidth="1"/>
     <col min="14" max="14" width="5.42578125" style="53" customWidth="1"/>
     <col min="15" max="15" width="4.7109375" style="53" customWidth="1"/>
@@ -1923,627 +1920,627 @@
       <c r="B1" s="29"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30"/>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="141" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="137" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="138" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="136" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="130"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="99"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="70"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="124"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="129" t="s">
+      <c r="L6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="124"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <v>1</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="22"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="129" t="s">
+      <c r="L8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="124"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>2</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="18"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="88"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="22"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="129" t="s">
+      <c r="L10" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="124"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
     </row>
     <row r="11" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>3</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="88"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44">
         <v>4</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="79"/>
     </row>
     <row r="13" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>5</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="79"/>
     </row>
     <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>6</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>7</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="76"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="76"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
     </row>
     <row r="16" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43">
         <v>8</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="26" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="17"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="62"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="79"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="22"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="129" t="s">
+      <c r="L17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="124"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="104"/>
       <c r="J18" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="15"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="88"/>
     </row>
     <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>10</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="79"/>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="76"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="76"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
     </row>
     <row r="22" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43">
         <v>11</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="26" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="17"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="22"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="129" t="s">
+      <c r="L23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="124"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="104"/>
       <c r="J24" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="88"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43">
         <v>13</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="26" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="17"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="62"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="79"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="22"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="82" t="s">
+      <c r="L26" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="84"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="101"/>
     </row>
     <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>14</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="104"/>
       <c r="J27" s="24"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="74"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="76"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="18"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="82"/>
     </row>
     <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="76"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="23" t="s">
         <v>16</v>
       </c>
@@ -2555,540 +2552,540 @@
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="136"/>
       <c r="J30" s="27" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="14"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="62"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="79"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="91"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="36"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="82" t="s">
+      <c r="L31" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="84"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="101"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="38">
         <v>15</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="81">
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="137">
         <v>0</v>
       </c>
-      <c r="K32" s="71"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="87"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="118"/>
     </row>
     <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>17</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="76"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="15"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="76"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="59"/>
     </row>
     <row r="34" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>18</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="76"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
       <c r="J34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="76"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="59"/>
     </row>
     <row r="35" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>19</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="74"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="56"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="76"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="59"/>
     </row>
     <row r="36" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>20</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="76"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
       <c r="J36" s="26" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="17"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="76"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="59"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>21</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="102"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="139"/>
       <c r="J37" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="13"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="65"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="136"/>
     </row>
     <row r="38" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="93"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="123" t="s">
+      <c r="F38" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="124"/>
-      <c r="J38" s="100" t="s">
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
+      <c r="J38" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="91"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="68"/>
     </row>
     <row r="39" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="114" t="s">
+      <c r="A39" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="91"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="62"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="68"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="79"/>
     </row>
     <row r="40" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="107">
-        <v>746745</v>
-      </c>
-      <c r="D40" s="93"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="131">
+        <v>620000</v>
+      </c>
+      <c r="D40" s="91"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="93"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="59"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="91"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="88"/>
     </row>
     <row r="41" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="99"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="59"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="70"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="88"/>
     </row>
     <row r="42" spans="1:15" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="125">
-        <v>441480.17</v>
-      </c>
-      <c r="D42" s="71"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="132">
+        <v>234988.84</v>
+      </c>
+      <c r="D42" s="72"/>
       <c r="E42" s="12"/>
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
       <c r="H42" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="110"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="59"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="88"/>
     </row>
     <row r="43" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="97">
-        <v>1050</v>
-      </c>
-      <c r="D43" s="91"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="111">
+        <v>1212</v>
+      </c>
+      <c r="D43" s="68"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="127"/>
-      <c r="H43" s="93"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="59"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="91"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="88"/>
     </row>
     <row r="44" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="98"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="59"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="70"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="88"/>
     </row>
     <row r="45" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="97">
-        <v>1386.23</v>
-      </c>
-      <c r="D45" s="91"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="111">
+        <v>1589.87</v>
+      </c>
+      <c r="D45" s="68"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="116" t="s">
+      <c r="F45" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="116"/>
-      <c r="H45" s="91"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="59"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="68"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="88"/>
     </row>
     <row r="46" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="98"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="99"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="59"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="70"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="88"/>
     </row>
     <row r="47" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="11"/>
       <c r="H47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="85"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="88"/>
+    </row>
+    <row r="48" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="110"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="59"/>
-    </row>
-    <row r="48" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="126" t="s">
+      <c r="B48" s="68"/>
+      <c r="C48" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="68"/>
+      <c r="E48" s="11"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="88"/>
+    </row>
+    <row r="49" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="11"/>
+      <c r="J49" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="91"/>
-      <c r="C48" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="91"/>
-      <c r="E48" s="11"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="111"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="59"/>
-    </row>
-    <row r="49" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="98"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="11"/>
-      <c r="J49" s="108" t="s">
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="61"/>
+    </row>
+    <row r="50" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="74"/>
-    </row>
-    <row r="50" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106" t="s">
+      <c r="B50" s="68"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="91"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="94" t="s">
+      <c r="F50" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="95" t="s">
+      <c r="G50" s="114"/>
+      <c r="H50" s="68"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="88"/>
+    </row>
+    <row r="51" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="69"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="70"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="88"/>
+    </row>
+    <row r="52" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="122"/>
-      <c r="H50" s="91"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="59"/>
-    </row>
-    <row r="51" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="98"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="99"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="59"/>
-    </row>
-    <row r="52" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="106" t="s">
+      <c r="B52" s="68"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="88"/>
+    </row>
+    <row r="53" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="87"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="88"/>
+    </row>
+    <row r="54" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="H52" s="34"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="59"/>
-    </row>
-    <row r="53" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="98"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="58"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="111"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="59"/>
-    </row>
-    <row r="54" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="115" t="s">
+      <c r="B54" s="68"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="85"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="88"/>
+    </row>
+    <row r="55" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="87"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="88"/>
+    </row>
+    <row r="56" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="J54" s="110"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="59"/>
-    </row>
-    <row r="55" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="98"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="58"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="111"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="59"/>
-    </row>
-    <row r="56" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="J56" s="110"/>
-      <c r="K56" s="111"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="59"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="85"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="88"/>
     </row>
     <row r="57" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="98"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="98"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="69"/>
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="68"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="104"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J58" s="35"/>
@@ -3100,119 +3097,119 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="E1:I2"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="L32:O32"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="J50:O57"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J39:O48"/>
+    <mergeCell ref="F39:H41"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A45:B46"/>
     <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F39:H41"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
     <mergeCell ref="C45:D46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J39:O48"/>
-    <mergeCell ref="J50:O57"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B29:I29"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3 E3">
+  <conditionalFormatting sqref="E3 G3">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3236,14 +3233,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="58"/>
+      <c r="A1" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3">
         <v>1504498</v>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="3" spans="1:2" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3">
         <v>57877</v>
@@ -3259,7 +3256,7 @@
     </row>
     <row r="4" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3">
         <v>21</v>
@@ -3267,30 +3264,30 @@
     </row>
     <row r="5" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="87"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="58"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="68"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3304,40 +3301,40 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="93"/>
+      <c r="A11" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="91"/>
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="148">
+      <c r="A12" s="150">
         <f>(B2-B3)/B5</f>
         <v>180827.625</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="82"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="150"/>
+      <c r="A13" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="146"/>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="143">
+      <c r="A14" s="147">
         <f>(B2-B3)/B4</f>
         <v>68886.71428571429</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3365,39 +3362,39 @@
   <sheetData>
     <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9">
         <v>10</v>
@@ -3427,12 +3424,12 @@
         <v>10</v>
       </c>
       <c r="K3" s="151" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -3461,11 +3458,11 @@
       <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="110"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
@@ -3494,11 +3491,11 @@
       <c r="J5" s="9">
         <v>10</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -3527,11 +3524,11 @@
       <c r="J6" s="9">
         <v>2</v>
       </c>
-      <c r="K6" s="110"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
@@ -3560,7 +3557,7 @@
       <c r="J7" s="9">
         <v>5</v>
       </c>
-      <c r="K7" s="110"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="8"/>
